--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value34.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value34.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8865729714461724</v>
+        <v>2.158893346786499</v>
       </c>
       <c r="B1">
-        <v>0.9295807373310701</v>
+        <v>2.666262865066528</v>
       </c>
       <c r="C1">
-        <v>1.040512781926097</v>
+        <v>3.563746452331543</v>
       </c>
       <c r="D1">
-        <v>1.603227246350259</v>
+        <v>6.073071956634521</v>
       </c>
       <c r="E1">
-        <v>3.343298828024312</v>
+        <v>2.055503606796265</v>
       </c>
     </row>
   </sheetData>
